--- a/рис/лабы/5Millsa_lab_5.xlsx
+++ b/рис/лабы/5Millsa_lab_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\homework2\рис\лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5EF728-E11A-49CA-8A07-C17EDF41AEDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596F5392-59D0-4982-990C-B26EAFABCE4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" xr2:uid="{6EE5AC3C-E402-467F-B231-ED7459F6AC95}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
